--- a/padam_excel/TS 1.3 Padam Input.xlsx
+++ b/padam_excel/TS 1.3 Padam Input.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="1.3 padam" sheetId="1" r:id="rId1"/>
-    <sheet name="new dt 01.06.2020" sheetId="2" r:id="rId2"/>
+    <sheet name="ver 0.2 dt 30.06.2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'new dt 01.06.2020'!$A$1:$G$1568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ver 0.2 dt 30.06.2020'!$A$1:$G$1568</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5235,9 +5235,6 @@
     <t>Soqcaq |</t>
   </si>
   <si>
-    <t>dhAmno# dhAmnaq itiq dhAmna#H - dhAqmnaqH |</t>
-  </si>
-  <si>
     <t>rAqjaqnn |</t>
   </si>
   <si>
@@ -6445,6 +6442,9 @@
   </si>
   <si>
     <t>pari#liKitAq itiq pari# - liqKiqtAqH |</t>
+  </si>
+  <si>
+    <t>dhAmno#dhAmnaq itiq dhAmna#H - dhAqmnaqH |</t>
   </si>
 </sst>
 </file>
@@ -38907,8 +38907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1562" workbookViewId="0">
-      <selection activeCell="A1569" sqref="A1569:A1669"/>
+    <sheetView tabSelected="1" topLeftCell="A999" workbookViewId="0">
+      <selection activeCell="B1008" sqref="B1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -39147,7 +39147,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1142</v>
@@ -40428,7 +40428,7 @@
         <v>68</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>1184</v>
@@ -41656,7 +41656,7 @@
         <v>52</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C220" s="16" t="s">
         <v>1271</v>
@@ -42354,7 +42354,7 @@
         <v>58</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>1290</v>
@@ -42656,7 +42656,7 @@
         <v>25</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C303" s="16" t="s">
         <v>1331</v>
@@ -42752,7 +42752,7 @@
         <v>33</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C311" s="16" t="s">
         <v>1331</v>
@@ -42848,7 +42848,7 @@
         <v>41</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C319" s="16" t="s">
         <v>1331</v>
@@ -42920,7 +42920,7 @@
         <v>47</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C325" s="16" t="s">
         <v>1331</v>
@@ -43932,7 +43932,7 @@
         <v>31</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C409" s="16" t="s">
         <v>1403</v>
@@ -44654,7 +44654,7 @@
         <v>60</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C469" s="16" t="s">
         <v>1424</v>
@@ -45318,7 +45318,7 @@
         <v>5</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C524" s="16" t="s">
         <v>1482</v>
@@ -45438,7 +45438,7 @@
         <v>15</v>
       </c>
       <c r="B534" s="16" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C534" s="16" t="s">
         <v>1482</v>
@@ -45510,7 +45510,7 @@
         <v>21</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C540" s="16" t="s">
         <v>1482</v>
@@ -45546,7 +45546,7 @@
         <v>24</v>
       </c>
       <c r="B543" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C543" s="16" t="s">
         <v>1482</v>
@@ -45630,7 +45630,7 @@
         <v>31</v>
       </c>
       <c r="B550" s="16" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C550" s="16" t="s">
         <v>1482</v>
@@ -45678,7 +45678,7 @@
         <v>35</v>
       </c>
       <c r="B554" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C554" s="16" t="s">
         <v>1482</v>
@@ -46086,7 +46086,7 @@
         <v>69</v>
       </c>
       <c r="B588" s="16" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C588" s="16" t="s">
         <v>1482</v>
@@ -46738,7 +46738,7 @@
         <v>4</v>
       </c>
       <c r="B642" s="16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C642" s="16" t="s">
         <v>1552</v>
@@ -46858,7 +46858,7 @@
         <v>14</v>
       </c>
       <c r="B652" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C652" s="16" t="s">
         <v>1552</v>
@@ -46954,7 +46954,7 @@
         <v>22</v>
       </c>
       <c r="B660" s="16" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C660" s="16" t="s">
         <v>1552</v>
@@ -47062,7 +47062,7 @@
         <v>31</v>
       </c>
       <c r="B669" s="16" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C669" s="16" t="s">
         <v>1552</v>
@@ -48194,7 +48194,7 @@
         <v>44</v>
       </c>
       <c r="B763" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C763" s="16" t="s">
         <v>1606</v>
@@ -49458,7 +49458,7 @@
         <v>55</v>
       </c>
       <c r="B868" s="16" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C868" s="16" t="s">
         <v>1649</v>
@@ -50398,7 +50398,7 @@
         <v>28</v>
       </c>
       <c r="B946" s="16" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C946" s="16" t="s">
         <v>1695</v>
@@ -51131,8 +51131,8 @@
         <f t="shared" si="17"/>
         <v>61</v>
       </c>
-      <c r="B1007" s="16" t="s">
-        <v>1735</v>
+      <c r="B1007" s="17" t="s">
+        <v>2138</v>
       </c>
       <c r="C1007" s="16" t="s">
         <v>1712</v>
@@ -51144,7 +51144,7 @@
         <v>62</v>
       </c>
       <c r="B1008" s="16" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C1008" s="16" t="s">
         <v>1712</v>
@@ -51156,7 +51156,7 @@
         <v>63</v>
       </c>
       <c r="B1009" s="16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C1009" s="16" t="s">
         <v>1712</v>
@@ -51168,7 +51168,7 @@
         <v>64</v>
       </c>
       <c r="B1010" s="16" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C1010" s="16" t="s">
         <v>1712</v>
@@ -51192,7 +51192,7 @@
         <v>66</v>
       </c>
       <c r="B1012" s="16" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C1012" s="16" t="s">
         <v>1712</v>
@@ -51228,7 +51228,7 @@
         <v>69</v>
       </c>
       <c r="B1015" s="16" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C1015" s="16" t="s">
         <v>1712</v>
@@ -51240,7 +51240,7 @@
         <v>70</v>
       </c>
       <c r="B1016" s="16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C1016" s="16" t="s">
         <v>1712</v>
@@ -51252,7 +51252,7 @@
         <v>71</v>
       </c>
       <c r="B1017" s="16" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C1017" s="16" t="s">
         <v>1712</v>
@@ -51264,7 +51264,7 @@
         <v>72</v>
       </c>
       <c r="B1018" s="16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C1018" s="16" t="s">
         <v>1712</v>
@@ -51276,7 +51276,7 @@
         <v>73</v>
       </c>
       <c r="B1019" s="16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C1019" s="16" t="s">
         <v>1712</v>
@@ -51288,7 +51288,7 @@
         <v>74</v>
       </c>
       <c r="B1020" s="16" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C1020" s="16" t="s">
         <v>1712</v>
@@ -51312,13 +51312,13 @@
         <v>76</v>
       </c>
       <c r="B1022" s="16" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C1022" s="16" t="s">
         <v>1712</v>
       </c>
       <c r="D1022" s="21" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1023" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51326,10 +51326,10 @@
         <v>1</v>
       </c>
       <c r="B1023" s="16" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C1023" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1024" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51338,10 +51338,10 @@
         <v>2</v>
       </c>
       <c r="B1024" s="16" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C1024" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1025" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51353,7 +51353,7 @@
         <v>1586</v>
       </c>
       <c r="C1025" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1026" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51362,10 +51362,10 @@
         <v>4</v>
       </c>
       <c r="B1026" s="16" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C1026" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1027" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51377,7 +51377,7 @@
         <v>1386</v>
       </c>
       <c r="C1027" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1028" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51386,10 +51386,10 @@
         <v>6</v>
       </c>
       <c r="B1028" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C1028" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1029" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51398,10 +51398,10 @@
         <v>7</v>
       </c>
       <c r="B1029" s="16" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C1029" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1030" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51413,7 +51413,7 @@
         <v>1151</v>
       </c>
       <c r="C1030" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1031" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51422,10 +51422,10 @@
         <v>9</v>
       </c>
       <c r="B1031" s="16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C1031" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1032" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51434,10 +51434,10 @@
         <v>10</v>
       </c>
       <c r="B1032" s="16" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C1032" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1033" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51446,10 +51446,10 @@
         <v>11</v>
       </c>
       <c r="B1033" s="16" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C1033" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1034" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51458,10 +51458,10 @@
         <v>12</v>
       </c>
       <c r="B1034" s="16" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C1034" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1035" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51473,7 +51473,7 @@
         <v>1534</v>
       </c>
       <c r="C1035" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1036" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51485,7 +51485,7 @@
         <v>1380</v>
       </c>
       <c r="C1036" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1037" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51494,10 +51494,10 @@
         <v>15</v>
       </c>
       <c r="B1037" s="16" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C1037" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1038" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51506,10 +51506,10 @@
         <v>16</v>
       </c>
       <c r="B1038" s="16" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C1038" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1039" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51518,10 +51518,10 @@
         <v>17</v>
       </c>
       <c r="B1039" s="16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C1039" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1040" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51530,10 +51530,10 @@
         <v>18</v>
       </c>
       <c r="B1040" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C1040" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1041" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51542,10 +51542,10 @@
         <v>19</v>
       </c>
       <c r="B1041" s="16" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C1041" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1042" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51554,10 +51554,10 @@
         <v>20</v>
       </c>
       <c r="B1042" s="16" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C1042" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1043" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51569,7 +51569,7 @@
         <v>1326</v>
       </c>
       <c r="C1043" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1044" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51578,10 +51578,10 @@
         <v>22</v>
       </c>
       <c r="B1044" s="16" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C1044" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1045" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51590,10 +51590,10 @@
         <v>23</v>
       </c>
       <c r="B1045" s="16" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C1045" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1046" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51602,10 +51602,10 @@
         <v>24</v>
       </c>
       <c r="B1046" s="16" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C1046" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1047" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51614,10 +51614,10 @@
         <v>25</v>
       </c>
       <c r="B1047" s="16" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C1047" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1048" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51626,10 +51626,10 @@
         <v>26</v>
       </c>
       <c r="B1048" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C1048" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1049" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51638,10 +51638,10 @@
         <v>27</v>
       </c>
       <c r="B1049" s="16" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C1049" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1050" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51650,10 +51650,10 @@
         <v>28</v>
       </c>
       <c r="B1050" s="16" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C1050" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1051" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51662,10 +51662,10 @@
         <v>29</v>
       </c>
       <c r="B1051" s="16" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C1051" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1052" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51677,7 +51677,7 @@
         <v>1371</v>
       </c>
       <c r="C1052" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1053" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51686,10 +51686,10 @@
         <v>31</v>
       </c>
       <c r="B1053" s="16" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C1053" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1054" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51698,10 +51698,10 @@
         <v>32</v>
       </c>
       <c r="B1054" s="16" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C1054" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1055" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51713,7 +51713,7 @@
         <v>1615</v>
       </c>
       <c r="C1055" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1056" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -51722,13 +51722,13 @@
         <v>34</v>
       </c>
       <c r="B1056" s="16" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C1056" s="16" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D1056" s="21" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1057" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51736,10 +51736,10 @@
         <v>1</v>
       </c>
       <c r="B1057" s="16" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C1057" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1058" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51751,7 +51751,7 @@
         <v>1144</v>
       </c>
       <c r="C1058" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1059" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51760,10 +51760,10 @@
         <v>3</v>
       </c>
       <c r="B1059" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C1059" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1060" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51775,7 +51775,7 @@
         <v>1144</v>
       </c>
       <c r="C1060" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1061" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51787,7 +51787,7 @@
         <v>1173</v>
       </c>
       <c r="C1061" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1062" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51799,7 +51799,7 @@
         <v>1144</v>
       </c>
       <c r="C1062" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1063" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51808,10 +51808,10 @@
         <v>7</v>
       </c>
       <c r="B1063" s="16" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C1063" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1064" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51823,7 +51823,7 @@
         <v>1144</v>
       </c>
       <c r="C1064" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1065" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51832,10 +51832,10 @@
         <v>9</v>
       </c>
       <c r="B1065" s="16" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C1065" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1066" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51847,7 +51847,7 @@
         <v>1509</v>
       </c>
       <c r="C1066" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1067" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51856,10 +51856,10 @@
         <v>11</v>
       </c>
       <c r="B1067" s="16" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C1067" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1068" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51868,10 +51868,10 @@
         <v>12</v>
       </c>
       <c r="B1068" s="16" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C1068" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1069" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51883,7 +51883,7 @@
         <v>1500</v>
       </c>
       <c r="C1069" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1070" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51892,10 +51892,10 @@
         <v>14</v>
       </c>
       <c r="B1070" s="16" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C1070" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1071" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51904,10 +51904,10 @@
         <v>15</v>
       </c>
       <c r="B1071" s="16" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C1071" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1072" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51919,7 +51919,7 @@
         <v>1727</v>
       </c>
       <c r="C1072" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1073" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51928,10 +51928,10 @@
         <v>17</v>
       </c>
       <c r="B1073" s="16" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C1073" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1074" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51940,10 +51940,10 @@
         <v>18</v>
       </c>
       <c r="B1074" s="16" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C1074" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1075" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51955,7 +51955,7 @@
         <v>1151</v>
       </c>
       <c r="C1075" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1076" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51967,7 +51967,7 @@
         <v>1622</v>
       </c>
       <c r="C1076" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1077" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51979,7 +51979,7 @@
         <v>1274</v>
       </c>
       <c r="C1077" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1078" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -51991,7 +51991,7 @@
         <v>1453</v>
       </c>
       <c r="C1078" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1079" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52003,7 +52003,7 @@
         <v>1329</v>
       </c>
       <c r="C1079" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1080" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52012,10 +52012,10 @@
         <v>24</v>
       </c>
       <c r="B1080" s="16" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C1080" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1081" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52027,7 +52027,7 @@
         <v>1329</v>
       </c>
       <c r="C1081" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1082" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52039,7 +52039,7 @@
         <v>1449</v>
       </c>
       <c r="C1082" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1083" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52048,10 +52048,10 @@
         <v>27</v>
       </c>
       <c r="B1083" s="16" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C1083" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1084" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52063,7 +52063,7 @@
         <v>1329</v>
       </c>
       <c r="C1084" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1085" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52075,7 +52075,7 @@
         <v>1144</v>
       </c>
       <c r="C1085" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1086" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52084,10 +52084,10 @@
         <v>30</v>
       </c>
       <c r="B1086" s="16" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C1086" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1087" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52096,10 +52096,10 @@
         <v>31</v>
       </c>
       <c r="B1087" s="16" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C1087" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1088" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52111,7 +52111,7 @@
         <v>1332</v>
       </c>
       <c r="C1088" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1089" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52120,10 +52120,10 @@
         <v>33</v>
       </c>
       <c r="B1089" s="16" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C1089" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1090" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52132,10 +52132,10 @@
         <v>34</v>
       </c>
       <c r="B1090" s="16" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C1090" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1091" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52144,10 +52144,10 @@
         <v>35</v>
       </c>
       <c r="B1091" s="16" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C1091" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1092" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52156,10 +52156,10 @@
         <v>36</v>
       </c>
       <c r="B1092" s="16" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C1092" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1093" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52168,10 +52168,10 @@
         <v>37</v>
       </c>
       <c r="B1093" s="16" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C1093" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1094" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52183,7 +52183,7 @@
         <v>1346</v>
       </c>
       <c r="C1094" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1095" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52192,10 +52192,10 @@
         <v>39</v>
       </c>
       <c r="B1095" s="16" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C1095" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1096" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52204,10 +52204,10 @@
         <v>40</v>
       </c>
       <c r="B1096" s="16" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C1096" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1097" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52219,7 +52219,7 @@
         <v>1725</v>
       </c>
       <c r="C1097" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1098" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52228,10 +52228,10 @@
         <v>42</v>
       </c>
       <c r="B1098" s="16" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C1098" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1099" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52243,7 +52243,7 @@
         <v>1586</v>
       </c>
       <c r="C1099" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1100" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52252,10 +52252,10 @@
         <v>44</v>
       </c>
       <c r="B1100" s="16" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C1100" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1101" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52267,7 +52267,7 @@
         <v>1169</v>
       </c>
       <c r="C1101" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1102" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52276,10 +52276,10 @@
         <v>46</v>
       </c>
       <c r="B1102" s="16" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C1102" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1103" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52288,10 +52288,10 @@
         <v>47</v>
       </c>
       <c r="B1103" s="16" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C1103" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1104" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52300,10 +52300,10 @@
         <v>48</v>
       </c>
       <c r="B1104" s="16" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C1104" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1105" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52312,10 +52312,10 @@
         <v>49</v>
       </c>
       <c r="B1105" s="16" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C1105" s="16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1106" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52324,13 +52324,13 @@
         <v>50</v>
       </c>
       <c r="B1106" s="16" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1106" s="16" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1106" s="21" t="s">
         <v>1791</v>
-      </c>
-      <c r="C1106" s="16" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D1106" s="21" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1107" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52341,7 +52341,7 @@
         <v>1555</v>
       </c>
       <c r="C1107" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1108" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52350,10 +52350,10 @@
         <v>2</v>
       </c>
       <c r="B1108" s="16" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C1108" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1109" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52365,7 +52365,7 @@
         <v>1386</v>
       </c>
       <c r="C1109" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1110" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52377,7 +52377,7 @@
         <v>1438</v>
       </c>
       <c r="C1110" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1111" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52386,10 +52386,10 @@
         <v>5</v>
       </c>
       <c r="B1111" s="16" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C1111" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1112" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52398,10 +52398,10 @@
         <v>6</v>
       </c>
       <c r="B1112" s="16" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C1112" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1113" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52410,10 +52410,10 @@
         <v>7</v>
       </c>
       <c r="B1113" s="16" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C1113" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1114" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52422,10 +52422,10 @@
         <v>8</v>
       </c>
       <c r="B1114" s="16" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C1114" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1115" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52434,10 +52434,10 @@
         <v>9</v>
       </c>
       <c r="B1115" s="16" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C1115" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1116" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52446,10 +52446,10 @@
         <v>10</v>
       </c>
       <c r="B1116" s="16" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C1116" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1117" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52461,7 +52461,7 @@
         <v>1165</v>
       </c>
       <c r="C1117" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1118" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52470,10 +52470,10 @@
         <v>12</v>
       </c>
       <c r="B1118" s="16" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C1118" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1119" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52482,10 +52482,10 @@
         <v>13</v>
       </c>
       <c r="B1119" s="16" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C1119" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1120" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52494,10 +52494,10 @@
         <v>14</v>
       </c>
       <c r="B1120" s="16" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C1120" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1121" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52506,10 +52506,10 @@
         <v>15</v>
       </c>
       <c r="B1121" s="16" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C1121" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1122" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52521,7 +52521,7 @@
         <v>1239</v>
       </c>
       <c r="C1122" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1123" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52533,7 +52533,7 @@
         <v>1394</v>
       </c>
       <c r="C1123" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1124" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52545,7 +52545,7 @@
         <v>1682</v>
       </c>
       <c r="C1124" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1125" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52554,10 +52554,10 @@
         <v>19</v>
       </c>
       <c r="B1125" s="16" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C1125" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1126" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52566,10 +52566,10 @@
         <v>20</v>
       </c>
       <c r="B1126" s="16" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C1126" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1127" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52578,10 +52578,10 @@
         <v>21</v>
       </c>
       <c r="B1127" s="16" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C1127" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1128" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52590,10 +52590,10 @@
         <v>22</v>
       </c>
       <c r="B1128" s="16" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C1128" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1129" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52605,7 +52605,7 @@
         <v>1653</v>
       </c>
       <c r="C1129" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1130" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52614,10 +52614,10 @@
         <v>24</v>
       </c>
       <c r="B1130" s="16" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C1130" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1131" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52629,7 +52629,7 @@
         <v>1340</v>
       </c>
       <c r="C1131" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1132" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52638,10 +52638,10 @@
         <v>26</v>
       </c>
       <c r="B1132" s="16" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C1132" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1133" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52653,7 +52653,7 @@
         <v>1154</v>
       </c>
       <c r="C1133" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1134" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52662,10 +52662,10 @@
         <v>28</v>
       </c>
       <c r="B1134" s="16" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C1134" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1135" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52677,7 +52677,7 @@
         <v>1580</v>
       </c>
       <c r="C1135" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1136" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52686,10 +52686,10 @@
         <v>30</v>
       </c>
       <c r="B1136" s="16" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C1136" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1137" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52698,10 +52698,10 @@
         <v>31</v>
       </c>
       <c r="B1137" s="16" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C1137" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1138" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52713,7 +52713,7 @@
         <v>1380</v>
       </c>
       <c r="C1138" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1139" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52722,10 +52722,10 @@
         <v>33</v>
       </c>
       <c r="B1139" s="16" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C1139" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1140" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52737,7 +52737,7 @@
         <v>1188</v>
       </c>
       <c r="C1140" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1141" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52746,10 +52746,10 @@
         <v>35</v>
       </c>
       <c r="B1141" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C1141" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1142" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52761,7 +52761,7 @@
         <v>1168</v>
       </c>
       <c r="C1142" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1143" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52773,7 +52773,7 @@
         <v>1327</v>
       </c>
       <c r="C1143" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1144" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52782,10 +52782,10 @@
         <v>38</v>
       </c>
       <c r="B1144" s="16" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C1144" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1145" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52794,10 +52794,10 @@
         <v>39</v>
       </c>
       <c r="B1145" s="16" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C1145" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1146" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52806,10 +52806,10 @@
         <v>40</v>
       </c>
       <c r="B1146" s="16" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C1146" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1147" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52818,10 +52818,10 @@
         <v>41</v>
       </c>
       <c r="B1147" s="16" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C1147" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1148" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52833,7 +52833,7 @@
         <v>1168</v>
       </c>
       <c r="C1148" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1149" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52842,10 +52842,10 @@
         <v>43</v>
       </c>
       <c r="B1149" s="16" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C1149" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1150" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52854,10 +52854,10 @@
         <v>44</v>
       </c>
       <c r="B1150" s="16" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C1150" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1151" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52866,10 +52866,10 @@
         <v>45</v>
       </c>
       <c r="B1151" s="16" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C1151" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1152" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -52878,10 +52878,10 @@
         <v>46</v>
       </c>
       <c r="B1152" s="16" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C1152" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1153" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52890,13 +52890,13 @@
         <v>47</v>
       </c>
       <c r="B1153" s="16" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C1153" s="16" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D1153" s="21" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1154" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52907,7 +52907,7 @@
         <v>1332</v>
       </c>
       <c r="C1154" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1155" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52919,7 +52919,7 @@
         <v>1327</v>
       </c>
       <c r="C1155" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1156" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52928,10 +52928,10 @@
         <v>3</v>
       </c>
       <c r="B1156" s="16" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C1156" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1157" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52940,10 +52940,10 @@
         <v>4</v>
       </c>
       <c r="B1157" s="16" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C1157" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1158" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52952,10 +52952,10 @@
         <v>5</v>
       </c>
       <c r="B1158" s="16" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C1158" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1159" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52964,10 +52964,10 @@
         <v>6</v>
       </c>
       <c r="B1159" s="16" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C1159" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1160" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52979,7 +52979,7 @@
         <v>1332</v>
       </c>
       <c r="C1160" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1161" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -52988,10 +52988,10 @@
         <v>8</v>
       </c>
       <c r="B1161" s="16" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C1161" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1162" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53000,10 +53000,10 @@
         <v>9</v>
       </c>
       <c r="B1162" s="16" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C1162" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1163" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53012,10 +53012,10 @@
         <v>10</v>
       </c>
       <c r="B1163" s="16" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C1163" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1164" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53024,10 +53024,10 @@
         <v>11</v>
       </c>
       <c r="B1164" s="16" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C1164" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1165" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53039,7 +53039,7 @@
         <v>1332</v>
       </c>
       <c r="C1165" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1166" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53048,10 +53048,10 @@
         <v>13</v>
       </c>
       <c r="B1166" s="16" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C1166" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1167" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53060,10 +53060,10 @@
         <v>14</v>
       </c>
       <c r="B1167" s="16" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C1167" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1168" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53072,10 +53072,10 @@
         <v>15</v>
       </c>
       <c r="B1168" s="16" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C1168" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1169" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53084,10 +53084,10 @@
         <v>16</v>
       </c>
       <c r="B1169" s="16" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C1169" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1170" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53099,7 +53099,7 @@
         <v>1332</v>
       </c>
       <c r="C1170" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1171" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53108,10 +53108,10 @@
         <v>18</v>
       </c>
       <c r="B1171" s="16" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C1171" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1172" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53120,10 +53120,10 @@
         <v>19</v>
       </c>
       <c r="B1172" s="16" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C1172" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1173" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53132,10 +53132,10 @@
         <v>20</v>
       </c>
       <c r="B1173" s="16" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C1173" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1174" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53144,10 +53144,10 @@
         <v>21</v>
       </c>
       <c r="B1174" s="16" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C1174" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1175" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53156,10 +53156,10 @@
         <v>22</v>
       </c>
       <c r="B1175" s="16" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C1175" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1176" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53171,7 +53171,7 @@
         <v>1151</v>
       </c>
       <c r="C1176" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1177" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53183,7 +53183,7 @@
         <v>1380</v>
       </c>
       <c r="C1177" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1178" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53192,10 +53192,10 @@
         <v>25</v>
       </c>
       <c r="B1178" s="16" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C1178" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1179" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53204,10 +53204,10 @@
         <v>26</v>
       </c>
       <c r="B1179" s="16" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C1179" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1180" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53216,10 +53216,10 @@
         <v>27</v>
       </c>
       <c r="B1180" s="16" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C1180" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1181" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53228,10 +53228,10 @@
         <v>28</v>
       </c>
       <c r="B1181" s="16" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C1181" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1182" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53240,10 +53240,10 @@
         <v>29</v>
       </c>
       <c r="B1182" s="16" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C1182" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1183" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53252,10 +53252,10 @@
         <v>30</v>
       </c>
       <c r="B1183" s="16" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C1183" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1184" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53267,7 +53267,7 @@
         <v>1724</v>
       </c>
       <c r="C1184" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1185" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53276,10 +53276,10 @@
         <v>32</v>
       </c>
       <c r="B1185" s="16" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C1185" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1186" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53288,10 +53288,10 @@
         <v>33</v>
       </c>
       <c r="B1186" s="16" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C1186" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1187" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53300,10 +53300,10 @@
         <v>34</v>
       </c>
       <c r="B1187" s="16" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C1187" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1188" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53312,10 +53312,10 @@
         <v>35</v>
       </c>
       <c r="B1188" s="16" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C1188" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1189" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53327,7 +53327,7 @@
         <v>1684</v>
       </c>
       <c r="C1189" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1190" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53336,10 +53336,10 @@
         <v>37</v>
       </c>
       <c r="B1190" s="16" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C1190" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1191" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53351,7 +53351,7 @@
         <v>1346</v>
       </c>
       <c r="C1191" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1192" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53360,10 +53360,10 @@
         <v>39</v>
       </c>
       <c r="B1192" s="16" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C1192" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1193" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53375,7 +53375,7 @@
         <v>1673</v>
       </c>
       <c r="C1193" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1194" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53384,10 +53384,10 @@
         <v>41</v>
       </c>
       <c r="B1194" s="16" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C1194" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1195" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53396,10 +53396,10 @@
         <v>42</v>
       </c>
       <c r="B1195" s="16" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C1195" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1196" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53408,10 +53408,10 @@
         <v>43</v>
       </c>
       <c r="B1196" s="16" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C1196" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1197" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53420,10 +53420,10 @@
         <v>44</v>
       </c>
       <c r="B1197" s="16" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C1197" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1198" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53432,10 +53432,10 @@
         <v>45</v>
       </c>
       <c r="B1198" s="16" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C1198" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1199" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53444,10 +53444,10 @@
         <v>46</v>
       </c>
       <c r="B1199" s="16" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C1199" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1200" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53456,10 +53456,10 @@
         <v>47</v>
       </c>
       <c r="B1200" s="16" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C1200" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1201" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53468,10 +53468,10 @@
         <v>48</v>
       </c>
       <c r="B1201" s="16" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C1201" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1202" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53483,7 +53483,7 @@
         <v>1300</v>
       </c>
       <c r="C1202" s="16" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1203" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53492,13 +53492,13 @@
         <v>50</v>
       </c>
       <c r="B1203" s="16" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1203" s="16" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D1203" s="21" t="s">
         <v>1851</v>
-      </c>
-      <c r="C1203" s="16" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D1203" s="21" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="1204" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53506,10 +53506,10 @@
         <v>1</v>
       </c>
       <c r="B1204" s="16" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C1204" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1205" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53518,10 +53518,10 @@
         <v>2</v>
       </c>
       <c r="B1205" s="16" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C1205" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1206" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53530,10 +53530,10 @@
         <v>3</v>
       </c>
       <c r="B1206" s="16" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C1206" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1207" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53542,10 +53542,10 @@
         <v>4</v>
       </c>
       <c r="B1207" s="16" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1207" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1208" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53554,10 +53554,10 @@
         <v>5</v>
       </c>
       <c r="B1208" s="16" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C1208" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1209" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53566,10 +53566,10 @@
         <v>6</v>
       </c>
       <c r="B1209" s="16" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C1209" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1210" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53578,10 +53578,10 @@
         <v>7</v>
       </c>
       <c r="B1210" s="16" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C1210" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1211" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53590,10 +53590,10 @@
         <v>8</v>
       </c>
       <c r="B1211" s="16" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C1211" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1212" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53602,10 +53602,10 @@
         <v>9</v>
       </c>
       <c r="B1212" s="16" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C1212" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1213" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53617,7 +53617,7 @@
         <v>1242</v>
       </c>
       <c r="C1213" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1214" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53629,7 +53629,7 @@
         <v>1560</v>
       </c>
       <c r="C1214" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1215" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53638,10 +53638,10 @@
         <v>12</v>
       </c>
       <c r="B1215" s="16" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C1215" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1216" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -53650,10 +53650,10 @@
         <v>13</v>
       </c>
       <c r="B1216" s="16" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C1216" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1217" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53662,10 +53662,10 @@
         <v>14</v>
       </c>
       <c r="B1217" s="16" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C1217" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1218" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53674,10 +53674,10 @@
         <v>15</v>
       </c>
       <c r="B1218" s="16" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C1218" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1219" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53686,10 +53686,10 @@
         <v>16</v>
       </c>
       <c r="B1219" s="16" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C1219" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1220" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53698,10 +53698,10 @@
         <v>17</v>
       </c>
       <c r="B1220" s="16" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1220" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1221" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53713,7 +53713,7 @@
         <v>1151</v>
       </c>
       <c r="C1221" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1222" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53722,10 +53722,10 @@
         <v>19</v>
       </c>
       <c r="B1222" s="16" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C1222" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1223" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53734,10 +53734,10 @@
         <v>20</v>
       </c>
       <c r="B1223" s="16" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C1223" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1224" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53746,10 +53746,10 @@
         <v>21</v>
       </c>
       <c r="B1224" s="16" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C1224" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1225" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53758,10 +53758,10 @@
         <v>22</v>
       </c>
       <c r="B1225" s="16" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C1225" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1226" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53770,10 +53770,10 @@
         <v>23</v>
       </c>
       <c r="B1226" s="16" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C1226" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1227" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53782,10 +53782,10 @@
         <v>24</v>
       </c>
       <c r="B1227" s="16" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C1227" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1228" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53797,7 +53797,7 @@
         <v>1242</v>
       </c>
       <c r="C1228" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1229" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53806,10 +53806,10 @@
         <v>26</v>
       </c>
       <c r="B1229" s="16" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C1229" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1230" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53818,10 +53818,10 @@
         <v>27</v>
       </c>
       <c r="B1230" s="16" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C1230" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1231" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53833,7 +53833,7 @@
         <v>1346</v>
       </c>
       <c r="C1231" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1232" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53842,10 +53842,10 @@
         <v>29</v>
       </c>
       <c r="B1232" s="16" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C1232" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1233" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53857,7 +53857,7 @@
         <v>1501</v>
       </c>
       <c r="C1233" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1234" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53866,10 +53866,10 @@
         <v>31</v>
       </c>
       <c r="B1234" s="16" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C1234" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1235" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53878,10 +53878,10 @@
         <v>32</v>
       </c>
       <c r="B1235" s="16" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C1235" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1236" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53890,10 +53890,10 @@
         <v>33</v>
       </c>
       <c r="B1236" s="16" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C1236" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1237" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53902,10 +53902,10 @@
         <v>34</v>
       </c>
       <c r="B1237" s="16" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C1237" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1238" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53914,10 +53914,10 @@
         <v>35</v>
       </c>
       <c r="B1238" s="16" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C1238" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1239" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53926,10 +53926,10 @@
         <v>36</v>
       </c>
       <c r="B1239" s="16" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C1239" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1240" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53938,10 +53938,10 @@
         <v>37</v>
       </c>
       <c r="B1240" s="16" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C1240" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1241" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53953,7 +53953,7 @@
         <v>1358</v>
       </c>
       <c r="C1241" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1242" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53962,10 +53962,10 @@
         <v>39</v>
       </c>
       <c r="B1242" s="16" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C1242" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1243" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53974,10 +53974,10 @@
         <v>40</v>
       </c>
       <c r="B1243" s="16" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C1243" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1244" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53986,10 +53986,10 @@
         <v>41</v>
       </c>
       <c r="B1244" s="16" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C1244" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1245" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -53998,10 +53998,10 @@
         <v>42</v>
       </c>
       <c r="B1245" s="16" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C1245" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1246" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54013,7 +54013,7 @@
         <v>1151</v>
       </c>
       <c r="C1246" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1247" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54022,10 +54022,10 @@
         <v>44</v>
       </c>
       <c r="B1247" s="16" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C1247" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1248" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54034,10 +54034,10 @@
         <v>45</v>
       </c>
       <c r="B1248" s="16" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C1248" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1249" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54049,7 +54049,7 @@
         <v>1492</v>
       </c>
       <c r="C1249" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1250" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54058,10 +54058,10 @@
         <v>47</v>
       </c>
       <c r="B1250" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C1250" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1251" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54070,10 +54070,10 @@
         <v>48</v>
       </c>
       <c r="B1251" s="16" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C1251" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1252" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54085,7 +54085,7 @@
         <v>1525</v>
       </c>
       <c r="C1252" s="16" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1253" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54094,13 +54094,13 @@
         <v>50</v>
       </c>
       <c r="B1253" s="16" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1253" s="16" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D1253" s="21" t="s">
         <v>1886</v>
-      </c>
-      <c r="C1253" s="16" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D1253" s="21" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="1254" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54108,10 +54108,10 @@
         <v>1</v>
       </c>
       <c r="B1254" s="16" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C1254" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1255" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54120,10 +54120,10 @@
         <v>2</v>
       </c>
       <c r="B1255" s="16" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C1255" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1256" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54132,10 +54132,10 @@
         <v>3</v>
       </c>
       <c r="B1256" s="16" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C1256" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1257" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54147,7 +54147,7 @@
         <v>1151</v>
       </c>
       <c r="C1257" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1258" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54156,10 +54156,10 @@
         <v>5</v>
       </c>
       <c r="B1258" s="16" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C1258" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1259" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54168,10 +54168,10 @@
         <v>6</v>
       </c>
       <c r="B1259" s="16" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C1259" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1260" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54180,10 +54180,10 @@
         <v>7</v>
       </c>
       <c r="B1260" s="16" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C1260" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1261" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54195,7 +54195,7 @@
         <v>1501</v>
       </c>
       <c r="C1261" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1262" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54204,10 +54204,10 @@
         <v>9</v>
       </c>
       <c r="B1262" s="16" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C1262" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1263" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54216,10 +54216,10 @@
         <v>10</v>
       </c>
       <c r="B1263" s="16" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C1263" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1264" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54228,10 +54228,10 @@
         <v>11</v>
       </c>
       <c r="B1264" s="16" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C1264" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1265" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54243,7 +54243,7 @@
         <v>1449</v>
       </c>
       <c r="C1265" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1266" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54252,10 +54252,10 @@
         <v>13</v>
       </c>
       <c r="B1266" s="16" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C1266" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1267" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54264,10 +54264,10 @@
         <v>14</v>
       </c>
       <c r="B1267" s="16" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1267" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1268" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54276,10 +54276,10 @@
         <v>15</v>
       </c>
       <c r="B1268" s="16" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C1268" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1269" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54288,10 +54288,10 @@
         <v>16</v>
       </c>
       <c r="B1269" s="16" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C1269" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1270" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54300,10 +54300,10 @@
         <v>17</v>
       </c>
       <c r="B1270" s="16" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C1270" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1271" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54312,10 +54312,10 @@
         <v>18</v>
       </c>
       <c r="B1271" s="16" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C1271" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1272" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54324,10 +54324,10 @@
         <v>19</v>
       </c>
       <c r="B1272" s="16" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C1272" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1273" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54336,10 +54336,10 @@
         <v>20</v>
       </c>
       <c r="B1273" s="16" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C1273" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1274" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54348,10 +54348,10 @@
         <v>21</v>
       </c>
       <c r="B1274" s="16" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C1274" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1275" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54363,7 +54363,7 @@
         <v>1407</v>
       </c>
       <c r="C1275" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1276" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54372,10 +54372,10 @@
         <v>23</v>
       </c>
       <c r="B1276" s="16" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C1276" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1277" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54384,10 +54384,10 @@
         <v>24</v>
       </c>
       <c r="B1277" s="16" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C1277" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1278" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54396,10 +54396,10 @@
         <v>25</v>
       </c>
       <c r="B1278" s="16" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1278" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1279" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54411,7 +54411,7 @@
         <v>1239</v>
       </c>
       <c r="C1279" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1280" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54420,10 +54420,10 @@
         <v>27</v>
       </c>
       <c r="B1280" s="16" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C1280" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1281" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54435,7 +54435,7 @@
         <v>1327</v>
       </c>
       <c r="C1281" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1282" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54447,7 +54447,7 @@
         <v>1419</v>
       </c>
       <c r="C1282" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1283" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54456,10 +54456,10 @@
         <v>30</v>
       </c>
       <c r="B1283" s="16" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C1283" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1284" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54468,10 +54468,10 @@
         <v>31</v>
       </c>
       <c r="B1284" s="16" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1284" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1285" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54480,10 +54480,10 @@
         <v>32</v>
       </c>
       <c r="B1285" s="16" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C1285" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1286" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54492,10 +54492,10 @@
         <v>33</v>
       </c>
       <c r="B1286" s="16" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C1286" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1287" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54504,10 +54504,10 @@
         <v>34</v>
       </c>
       <c r="B1287" s="16" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C1287" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1288" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54516,10 +54516,10 @@
         <v>35</v>
       </c>
       <c r="B1288" s="16" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1288" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1289" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54531,7 +54531,7 @@
         <v>1356</v>
       </c>
       <c r="C1289" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1290" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54543,7 +54543,7 @@
         <v>1277</v>
       </c>
       <c r="C1290" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1291" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54552,10 +54552,10 @@
         <v>38</v>
       </c>
       <c r="B1291" s="16" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C1291" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1292" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54564,10 +54564,10 @@
         <v>39</v>
       </c>
       <c r="B1292" s="16" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1292" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1293" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54576,10 +54576,10 @@
         <v>40</v>
       </c>
       <c r="B1293" s="16" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C1293" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1294" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54588,10 +54588,10 @@
         <v>41</v>
       </c>
       <c r="B1294" s="16" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C1294" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1295" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54600,10 +54600,10 @@
         <v>42</v>
       </c>
       <c r="B1295" s="16" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C1295" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1296" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54612,10 +54612,10 @@
         <v>43</v>
       </c>
       <c r="B1296" s="16" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C1296" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1297" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54624,10 +54624,10 @@
         <v>44</v>
       </c>
       <c r="B1297" s="16" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C1297" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1298" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54636,10 +54636,10 @@
         <v>45</v>
       </c>
       <c r="B1298" s="16" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C1298" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1299" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54648,10 +54648,10 @@
         <v>46</v>
       </c>
       <c r="B1299" s="16" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C1299" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1300" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54663,7 +54663,7 @@
         <v>1407</v>
       </c>
       <c r="C1300" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1301" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54672,10 +54672,10 @@
         <v>48</v>
       </c>
       <c r="B1301" s="16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C1301" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1302" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54687,7 +54687,7 @@
         <v>1151</v>
       </c>
       <c r="C1302" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1303" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54696,13 +54696,13 @@
         <v>50</v>
       </c>
       <c r="B1303" s="16" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C1303" s="16" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D1303" s="21" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1304" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54710,10 +54710,10 @@
         <v>1</v>
       </c>
       <c r="B1304" s="16" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C1304" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1305" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54722,10 +54722,10 @@
         <v>2</v>
       </c>
       <c r="B1305" s="16" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C1305" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1306" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54734,10 +54734,10 @@
         <v>3</v>
       </c>
       <c r="B1306" s="16" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C1306" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1307" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54746,10 +54746,10 @@
         <v>4</v>
       </c>
       <c r="B1307" s="16" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C1307" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1308" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54758,10 +54758,10 @@
         <v>5</v>
       </c>
       <c r="B1308" s="16" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C1308" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1309" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54770,10 +54770,10 @@
         <v>6</v>
       </c>
       <c r="B1309" s="16" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C1309" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1310" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54782,10 +54782,10 @@
         <v>7</v>
       </c>
       <c r="B1310" s="16" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C1310" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1311" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54794,10 +54794,10 @@
         <v>8</v>
       </c>
       <c r="B1311" s="16" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C1311" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1312" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -54806,10 +54806,10 @@
         <v>9</v>
       </c>
       <c r="B1312" s="16" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C1312" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1313" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54818,10 +54818,10 @@
         <v>10</v>
       </c>
       <c r="B1313" s="16" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C1313" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1314" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54833,7 +54833,7 @@
         <v>1165</v>
       </c>
       <c r="C1314" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1315" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54842,10 +54842,10 @@
         <v>12</v>
       </c>
       <c r="B1315" s="16" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C1315" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1316" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54854,10 +54854,10 @@
         <v>13</v>
       </c>
       <c r="B1316" s="16" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C1316" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1317" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54866,10 +54866,10 @@
         <v>14</v>
       </c>
       <c r="B1317" s="16" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C1317" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1318" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54878,10 +54878,10 @@
         <v>15</v>
       </c>
       <c r="B1318" s="16" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C1318" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1319" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54893,7 +54893,7 @@
         <v>1346</v>
       </c>
       <c r="C1319" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1320" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54902,10 +54902,10 @@
         <v>17</v>
       </c>
       <c r="B1320" s="16" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C1320" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1321" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54914,10 +54914,10 @@
         <v>18</v>
       </c>
       <c r="B1321" s="16" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C1321" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1322" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54926,10 +54926,10 @@
         <v>19</v>
       </c>
       <c r="B1322" s="16" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1322" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1323" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54941,7 +54941,7 @@
         <v>1478</v>
       </c>
       <c r="C1323" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1324" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54953,7 +54953,7 @@
         <v>1223</v>
       </c>
       <c r="C1324" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1325" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54962,10 +54962,10 @@
         <v>22</v>
       </c>
       <c r="B1325" s="16" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C1325" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1326" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54977,7 +54977,7 @@
         <v>1349</v>
       </c>
       <c r="C1326" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1327" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54989,7 +54989,7 @@
         <v>1346</v>
       </c>
       <c r="C1327" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1328" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -54998,10 +54998,10 @@
         <v>25</v>
       </c>
       <c r="B1328" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C1328" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1329" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55010,10 +55010,10 @@
         <v>26</v>
       </c>
       <c r="B1329" s="16" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C1329" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1330" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55025,7 +55025,7 @@
         <v>1478</v>
       </c>
       <c r="C1330" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1331" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55037,7 +55037,7 @@
         <v>1589</v>
       </c>
       <c r="C1331" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1332" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55049,7 +55049,7 @@
         <v>1151</v>
       </c>
       <c r="C1332" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1333" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55058,10 +55058,10 @@
         <v>30</v>
       </c>
       <c r="B1333" s="16" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C1333" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1334" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55070,10 +55070,10 @@
         <v>31</v>
       </c>
       <c r="B1334" s="16" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C1334" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1335" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55082,10 +55082,10 @@
         <v>32</v>
       </c>
       <c r="B1335" s="16" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C1335" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1336" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55094,10 +55094,10 @@
         <v>33</v>
       </c>
       <c r="B1336" s="16" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C1336" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1337" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55106,10 +55106,10 @@
         <v>34</v>
       </c>
       <c r="B1337" s="16" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C1337" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1338" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55118,10 +55118,10 @@
         <v>35</v>
       </c>
       <c r="B1338" s="16" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1338" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1339" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55133,7 +55133,7 @@
         <v>1327</v>
       </c>
       <c r="C1339" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1340" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55145,7 +55145,7 @@
         <v>1609</v>
       </c>
       <c r="C1340" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1341" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55157,7 +55157,7 @@
         <v>1341</v>
       </c>
       <c r="C1341" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1342" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55166,10 +55166,10 @@
         <v>39</v>
       </c>
       <c r="B1342" s="16" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C1342" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1343" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55178,10 +55178,10 @@
         <v>40</v>
       </c>
       <c r="B1343" s="16" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C1343" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1344" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55190,10 +55190,10 @@
         <v>41</v>
       </c>
       <c r="B1344" s="16" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C1344" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1345" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55205,7 +55205,7 @@
         <v>1361</v>
       </c>
       <c r="C1345" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1346" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55214,10 +55214,10 @@
         <v>43</v>
       </c>
       <c r="B1346" s="16" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C1346" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1347" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55226,10 +55226,10 @@
         <v>44</v>
       </c>
       <c r="B1347" s="16" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C1347" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1348" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55238,10 +55238,10 @@
         <v>45</v>
       </c>
       <c r="B1348" s="16" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C1348" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1349" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55250,10 +55250,10 @@
         <v>46</v>
       </c>
       <c r="B1349" s="16" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C1349" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1350" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55262,10 +55262,10 @@
         <v>47</v>
       </c>
       <c r="B1350" s="16" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C1350" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1351" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55277,7 +55277,7 @@
         <v>1501</v>
       </c>
       <c r="C1351" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1352" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55289,7 +55289,7 @@
         <v>1730</v>
       </c>
       <c r="C1352" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1353" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55301,10 +55301,10 @@
         <v>1277</v>
       </c>
       <c r="C1353" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D1353" s="21" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1354" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55312,10 +55312,10 @@
         <v>1</v>
       </c>
       <c r="B1354" s="16" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C1354" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1355" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55324,10 +55324,10 @@
         <v>2</v>
       </c>
       <c r="B1355" s="16" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C1355" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1356" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55336,10 +55336,10 @@
         <v>3</v>
       </c>
       <c r="B1356" s="16" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C1356" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1357" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55351,7 +55351,7 @@
         <v>1478</v>
       </c>
       <c r="C1357" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1358" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55360,10 +55360,10 @@
         <v>5</v>
       </c>
       <c r="B1358" s="16" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C1358" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1359" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55372,10 +55372,10 @@
         <v>6</v>
       </c>
       <c r="B1359" s="16" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C1359" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1360" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55384,10 +55384,10 @@
         <v>7</v>
       </c>
       <c r="B1360" s="16" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C1360" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1361" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55399,7 +55399,7 @@
         <v>1407</v>
       </c>
       <c r="C1361" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1362" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55408,10 +55408,10 @@
         <v>9</v>
       </c>
       <c r="B1362" s="16" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C1362" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1363" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55420,10 +55420,10 @@
         <v>10</v>
       </c>
       <c r="B1363" s="16" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C1363" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1364" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55432,10 +55432,10 @@
         <v>11</v>
       </c>
       <c r="B1364" s="16" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C1364" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1365" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55447,7 +55447,7 @@
         <v>1205</v>
       </c>
       <c r="C1365" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1366" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55456,10 +55456,10 @@
         <v>13</v>
       </c>
       <c r="B1366" s="16" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C1366" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1367" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55468,10 +55468,10 @@
         <v>14</v>
       </c>
       <c r="B1367" s="16" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C1367" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1368" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55483,7 +55483,7 @@
         <v>1346</v>
       </c>
       <c r="C1368" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1369" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55495,7 +55495,7 @@
         <v>1181</v>
       </c>
       <c r="C1369" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1370" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55504,10 +55504,10 @@
         <v>17</v>
       </c>
       <c r="B1370" s="16" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C1370" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1371" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55516,10 +55516,10 @@
         <v>18</v>
       </c>
       <c r="B1371" s="16" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C1371" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1372" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55528,10 +55528,10 @@
         <v>19</v>
       </c>
       <c r="B1372" s="16" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C1372" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1373" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55540,10 +55540,10 @@
         <v>20</v>
       </c>
       <c r="B1373" s="16" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C1373" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1374" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55552,10 +55552,10 @@
         <v>21</v>
       </c>
       <c r="B1374" s="16" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C1374" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1375" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55564,10 +55564,10 @@
         <v>22</v>
       </c>
       <c r="B1375" s="16" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C1375" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1376" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55576,10 +55576,10 @@
         <v>23</v>
       </c>
       <c r="B1376" s="16" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C1376" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1377" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55588,10 +55588,10 @@
         <v>24</v>
       </c>
       <c r="B1377" s="16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C1377" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1378" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55603,7 +55603,7 @@
         <v>1246</v>
       </c>
       <c r="C1378" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1379" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55612,10 +55612,10 @@
         <v>26</v>
       </c>
       <c r="B1379" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C1379" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1380" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55624,10 +55624,10 @@
         <v>27</v>
       </c>
       <c r="B1380" s="16" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C1380" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1381" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55636,10 +55636,10 @@
         <v>28</v>
       </c>
       <c r="B1381" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C1381" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1382" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55648,10 +55648,10 @@
         <v>29</v>
       </c>
       <c r="B1382" s="16" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C1382" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1383" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55660,10 +55660,10 @@
         <v>30</v>
       </c>
       <c r="B1383" s="16" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C1383" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1384" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55675,7 +55675,7 @@
         <v>1407</v>
       </c>
       <c r="C1384" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1385" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55684,10 +55684,10 @@
         <v>32</v>
       </c>
       <c r="B1385" s="16" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C1385" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1386" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55699,7 +55699,7 @@
         <v>1358</v>
       </c>
       <c r="C1386" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1387" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55708,10 +55708,10 @@
         <v>34</v>
       </c>
       <c r="B1387" s="16" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C1387" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1388" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55723,7 +55723,7 @@
         <v>1332</v>
       </c>
       <c r="C1388" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1389" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55732,10 +55732,10 @@
         <v>36</v>
       </c>
       <c r="B1389" s="16" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C1389" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1390" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55744,10 +55744,10 @@
         <v>37</v>
       </c>
       <c r="B1390" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C1390" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1391" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55756,10 +55756,10 @@
         <v>38</v>
       </c>
       <c r="B1391" s="16" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1391" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1392" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55768,10 +55768,10 @@
         <v>39</v>
       </c>
       <c r="B1392" s="16" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C1392" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1393" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55780,10 +55780,10 @@
         <v>40</v>
       </c>
       <c r="B1393" s="16" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C1393" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1394" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55795,7 +55795,7 @@
         <v>1358</v>
       </c>
       <c r="C1394" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1395" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55804,10 +55804,10 @@
         <v>42</v>
       </c>
       <c r="B1395" s="16" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C1395" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1396" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55816,10 +55816,10 @@
         <v>43</v>
       </c>
       <c r="B1396" s="16" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C1396" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1397" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55828,10 +55828,10 @@
         <v>44</v>
       </c>
       <c r="B1397" s="16" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1397" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1398" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55840,10 +55840,10 @@
         <v>45</v>
       </c>
       <c r="B1398" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C1398" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1399" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55852,10 +55852,10 @@
         <v>46</v>
       </c>
       <c r="B1399" s="16" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C1399" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1400" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55867,7 +55867,7 @@
         <v>1346</v>
       </c>
       <c r="C1400" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1401" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55876,10 +55876,10 @@
         <v>48</v>
       </c>
       <c r="B1401" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C1401" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1402" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55888,10 +55888,10 @@
         <v>49</v>
       </c>
       <c r="B1402" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C1402" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1403" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55900,13 +55900,13 @@
         <v>50</v>
       </c>
       <c r="B1403" s="16" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C1403" s="16" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D1403" s="21" t="s">
         <v>1975</v>
-      </c>
-      <c r="C1403" s="16" t="s">
-        <v>1946</v>
-      </c>
-      <c r="D1403" s="21" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="1404" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55917,7 +55917,7 @@
         <v>1639</v>
       </c>
       <c r="C1404" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1405" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55929,7 +55929,7 @@
         <v>1246</v>
       </c>
       <c r="C1405" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1406" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55938,10 +55938,10 @@
         <v>3</v>
       </c>
       <c r="B1406" s="16" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C1406" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1407" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55950,10 +55950,10 @@
         <v>4</v>
       </c>
       <c r="B1407" s="16" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C1407" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1408" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -55962,10 +55962,10 @@
         <v>5</v>
       </c>
       <c r="B1408" s="16" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C1408" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1409" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55977,7 +55977,7 @@
         <v>1151</v>
       </c>
       <c r="C1409" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1410" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -55989,7 +55989,7 @@
         <v>1639</v>
       </c>
       <c r="C1410" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1411" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56001,7 +56001,7 @@
         <v>1517</v>
       </c>
       <c r="C1411" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1412" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56010,10 +56010,10 @@
         <v>9</v>
       </c>
       <c r="B1412" s="16" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C1412" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1413" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56022,10 +56022,10 @@
         <v>10</v>
       </c>
       <c r="B1413" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C1413" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1414" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56034,10 +56034,10 @@
         <v>11</v>
       </c>
       <c r="B1414" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1414" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1415" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56046,10 +56046,10 @@
         <v>12</v>
       </c>
       <c r="B1415" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1415" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1416" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56058,10 +56058,10 @@
         <v>13</v>
       </c>
       <c r="B1416" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1416" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1417" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56070,10 +56070,10 @@
         <v>14</v>
       </c>
       <c r="B1417" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1417" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1418" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56082,10 +56082,10 @@
         <v>15</v>
       </c>
       <c r="B1418" s="16" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C1418" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1419" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56094,10 +56094,10 @@
         <v>16</v>
       </c>
       <c r="B1419" s="16" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C1419" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1420" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56109,7 +56109,7 @@
         <v>1346</v>
       </c>
       <c r="C1420" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1421" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56118,10 +56118,10 @@
         <v>18</v>
       </c>
       <c r="B1421" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1421" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1422" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56130,10 +56130,10 @@
         <v>19</v>
       </c>
       <c r="B1422" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1422" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1423" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56142,10 +56142,10 @@
         <v>20</v>
       </c>
       <c r="B1423" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1423" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1424" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56154,10 +56154,10 @@
         <v>21</v>
       </c>
       <c r="B1424" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1424" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1425" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56166,10 +56166,10 @@
         <v>22</v>
       </c>
       <c r="B1425" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1425" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1426" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56178,10 +56178,10 @@
         <v>23</v>
       </c>
       <c r="B1426" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C1426" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1427" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56190,10 +56190,10 @@
         <v>24</v>
       </c>
       <c r="B1427" s="16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C1427" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1428" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56202,10 +56202,10 @@
         <v>25</v>
       </c>
       <c r="B1428" s="16" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C1428" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1429" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56214,10 +56214,10 @@
         <v>26</v>
       </c>
       <c r="B1429" s="16" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C1429" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1430" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56229,7 +56229,7 @@
         <v>1666</v>
       </c>
       <c r="C1430" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1431" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56238,10 +56238,10 @@
         <v>28</v>
       </c>
       <c r="B1431" s="16" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C1431" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1432" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56250,10 +56250,10 @@
         <v>29</v>
       </c>
       <c r="B1432" s="16" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1432" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1433" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56262,10 +56262,10 @@
         <v>30</v>
       </c>
       <c r="B1433" s="16" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C1433" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1434" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56274,10 +56274,10 @@
         <v>31</v>
       </c>
       <c r="B1434" s="16" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C1434" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1435" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56286,10 +56286,10 @@
         <v>32</v>
       </c>
       <c r="B1435" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C1435" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1436" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56301,7 +56301,7 @@
         <v>1407</v>
       </c>
       <c r="C1436" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1437" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56313,7 +56313,7 @@
         <v>1210</v>
       </c>
       <c r="C1437" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1438" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56322,10 +56322,10 @@
         <v>35</v>
       </c>
       <c r="B1438" s="16" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C1438" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1439" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56334,10 +56334,10 @@
         <v>36</v>
       </c>
       <c r="B1439" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C1439" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1440" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56346,10 +56346,10 @@
         <v>37</v>
       </c>
       <c r="B1440" s="16" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C1440" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1441" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56361,7 +56361,7 @@
         <v>1478</v>
       </c>
       <c r="C1441" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1442" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56370,10 +56370,10 @@
         <v>39</v>
       </c>
       <c r="B1442" s="16" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C1442" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1443" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56385,7 +56385,7 @@
         <v>1169</v>
       </c>
       <c r="C1443" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1444" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56394,10 +56394,10 @@
         <v>41</v>
       </c>
       <c r="B1444" s="16" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C1444" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1445" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56409,7 +56409,7 @@
         <v>1407</v>
       </c>
       <c r="C1445" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1446" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56418,10 +56418,10 @@
         <v>43</v>
       </c>
       <c r="B1446" s="16" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C1446" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1447" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56433,7 +56433,7 @@
         <v>1151</v>
       </c>
       <c r="C1447" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1448" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56442,10 +56442,10 @@
         <v>45</v>
       </c>
       <c r="B1448" s="16" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C1448" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1449" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56454,10 +56454,10 @@
         <v>46</v>
       </c>
       <c r="B1449" s="16" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C1449" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1450" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56466,10 +56466,10 @@
         <v>47</v>
       </c>
       <c r="B1450" s="16" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C1450" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1451" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56478,10 +56478,10 @@
         <v>48</v>
       </c>
       <c r="B1451" s="16" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C1451" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1452" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56490,10 +56490,10 @@
         <v>49</v>
       </c>
       <c r="B1452" s="16" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C1452" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1453" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56505,10 +56505,10 @@
         <v>1165</v>
       </c>
       <c r="C1453" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D1453" s="21" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1454" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56516,10 +56516,10 @@
         <v>1</v>
       </c>
       <c r="B1454" s="16" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C1454" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1455" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56531,7 +56531,7 @@
         <v>1277</v>
       </c>
       <c r="C1455" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1456" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56540,10 +56540,10 @@
         <v>3</v>
       </c>
       <c r="B1456" s="16" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C1456" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1457" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56552,10 +56552,10 @@
         <v>4</v>
       </c>
       <c r="B1457" s="16" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C1457" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1458" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56564,10 +56564,10 @@
         <v>5</v>
       </c>
       <c r="B1458" s="16" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C1458" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1459" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56579,7 +56579,7 @@
         <v>1239</v>
       </c>
       <c r="C1459" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1460" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56591,7 +56591,7 @@
         <v>1327</v>
       </c>
       <c r="C1460" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1461" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56600,10 +56600,10 @@
         <v>8</v>
       </c>
       <c r="B1461" s="16" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C1461" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1462" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56612,10 +56612,10 @@
         <v>9</v>
       </c>
       <c r="B1462" s="16" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C1462" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1463" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56624,10 +56624,10 @@
         <v>10</v>
       </c>
       <c r="B1463" s="16" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C1463" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1464" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56639,7 +56639,7 @@
         <v>1151</v>
       </c>
       <c r="C1464" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1465" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56648,10 +56648,10 @@
         <v>12</v>
       </c>
       <c r="B1465" s="16" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C1465" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1466" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56663,7 +56663,7 @@
         <v>1332</v>
       </c>
       <c r="C1466" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1467" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56672,10 +56672,10 @@
         <v>14</v>
       </c>
       <c r="B1467" s="16" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C1467" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1468" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56684,10 +56684,10 @@
         <v>15</v>
       </c>
       <c r="B1468" s="16" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C1468" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1469" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56696,10 +56696,10 @@
         <v>16</v>
       </c>
       <c r="B1469" s="16" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C1469" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1470" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56708,10 +56708,10 @@
         <v>17</v>
       </c>
       <c r="B1470" s="16" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C1470" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1471" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56720,10 +56720,10 @@
         <v>18</v>
       </c>
       <c r="B1471" s="16" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C1471" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1472" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56732,10 +56732,10 @@
         <v>19</v>
       </c>
       <c r="B1472" s="16" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C1472" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1473" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56744,10 +56744,10 @@
         <v>20</v>
       </c>
       <c r="B1473" s="16" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1473" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1474" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56756,10 +56756,10 @@
         <v>21</v>
       </c>
       <c r="B1474" s="16" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1474" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1475" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56768,10 +56768,10 @@
         <v>22</v>
       </c>
       <c r="B1475" s="16" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C1475" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1476" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56780,10 +56780,10 @@
         <v>23</v>
       </c>
       <c r="B1476" s="16" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C1476" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1477" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56792,10 +56792,10 @@
         <v>24</v>
       </c>
       <c r="B1477" s="16" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C1477" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1478" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56804,10 +56804,10 @@
         <v>25</v>
       </c>
       <c r="B1478" s="16" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C1478" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1479" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56816,10 +56816,10 @@
         <v>26</v>
       </c>
       <c r="B1479" s="16" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C1479" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1480" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56828,10 +56828,10 @@
         <v>27</v>
       </c>
       <c r="B1480" s="16" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C1480" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1481" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56840,10 +56840,10 @@
         <v>28</v>
       </c>
       <c r="B1481" s="16" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C1481" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1482" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56852,10 +56852,10 @@
         <v>29</v>
       </c>
       <c r="B1482" s="16" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C1482" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1483" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56864,10 +56864,10 @@
         <v>30</v>
       </c>
       <c r="B1483" s="16" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1483" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1484" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56876,10 +56876,10 @@
         <v>31</v>
       </c>
       <c r="B1484" s="16" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C1484" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1485" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56888,10 +56888,10 @@
         <v>32</v>
       </c>
       <c r="B1485" s="16" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C1485" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1486" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56903,7 +56903,7 @@
         <v>1346</v>
       </c>
       <c r="C1486" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1487" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56912,10 +56912,10 @@
         <v>34</v>
       </c>
       <c r="B1487" s="16" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C1487" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1488" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -56924,10 +56924,10 @@
         <v>35</v>
       </c>
       <c r="B1488" s="16" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C1488" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1489" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56936,10 +56936,10 @@
         <v>36</v>
       </c>
       <c r="B1489" s="16" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C1489" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1490" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56948,10 +56948,10 @@
         <v>37</v>
       </c>
       <c r="B1490" s="16" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C1490" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1491" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56963,7 +56963,7 @@
         <v>1332</v>
       </c>
       <c r="C1491" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1492" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56975,7 +56975,7 @@
         <v>1242</v>
       </c>
       <c r="C1492" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1493" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56984,10 +56984,10 @@
         <v>40</v>
       </c>
       <c r="B1493" s="16" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C1493" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1494" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -56996,10 +56996,10 @@
         <v>41</v>
       </c>
       <c r="B1494" s="16" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C1494" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1495" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57011,7 +57011,7 @@
         <v>1616</v>
       </c>
       <c r="C1495" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1496" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57020,10 +57020,10 @@
         <v>43</v>
       </c>
       <c r="B1496" s="16" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C1496" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1497" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57035,7 +57035,7 @@
         <v>1501</v>
       </c>
       <c r="C1497" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1498" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57044,10 +57044,10 @@
         <v>45</v>
       </c>
       <c r="B1498" s="16" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C1498" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1499" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57056,10 +57056,10 @@
         <v>46</v>
       </c>
       <c r="B1499" s="16" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C1499" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1500" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57068,10 +57068,10 @@
         <v>47</v>
       </c>
       <c r="B1500" s="16" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C1500" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1501" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57080,10 +57080,10 @@
         <v>48</v>
       </c>
       <c r="B1501" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C1501" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1502" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57095,7 +57095,7 @@
         <v>1407</v>
       </c>
       <c r="C1502" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1503" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57104,13 +57104,13 @@
         <v>50</v>
       </c>
       <c r="B1503" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C1503" s="16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D1503" s="21" t="s">
         <v>2031</v>
-      </c>
-      <c r="C1503" s="16" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D1503" s="21" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="1504" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57118,10 +57118,10 @@
         <v>1</v>
       </c>
       <c r="B1504" s="16" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C1504" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1505" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57133,7 +57133,7 @@
         <v>1151</v>
       </c>
       <c r="C1505" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1506" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57142,10 +57142,10 @@
         <v>3</v>
       </c>
       <c r="B1506" s="16" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C1506" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1507" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57154,10 +57154,10 @@
         <v>4</v>
       </c>
       <c r="B1507" s="16" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C1507" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1508" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57166,10 +57166,10 @@
         <v>5</v>
       </c>
       <c r="B1508" s="16" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C1508" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1509" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57181,7 +57181,7 @@
         <v>1169</v>
       </c>
       <c r="C1509" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1510" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57190,10 +57190,10 @@
         <v>7</v>
       </c>
       <c r="B1510" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C1510" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1511" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57202,10 +57202,10 @@
         <v>8</v>
       </c>
       <c r="B1511" s="16" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C1511" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1512" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57214,10 +57214,10 @@
         <v>9</v>
       </c>
       <c r="B1512" s="16" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C1512" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1513" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57226,10 +57226,10 @@
         <v>10</v>
       </c>
       <c r="B1513" s="16" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C1513" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1514" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57241,7 +57241,7 @@
         <v>1407</v>
       </c>
       <c r="C1514" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1515" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57250,10 +57250,10 @@
         <v>12</v>
       </c>
       <c r="B1515" s="16" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C1515" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1516" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57262,10 +57262,10 @@
         <v>13</v>
       </c>
       <c r="B1516" s="16" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C1516" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1517" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57274,10 +57274,10 @@
         <v>14</v>
       </c>
       <c r="B1517" s="16" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C1517" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1518" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57286,10 +57286,10 @@
         <v>15</v>
       </c>
       <c r="B1518" s="16" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C1518" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1519" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57298,10 +57298,10 @@
         <v>16</v>
       </c>
       <c r="B1519" s="16" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C1519" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1520" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57310,10 +57310,10 @@
         <v>17</v>
       </c>
       <c r="B1520" s="16" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C1520" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1521" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57325,7 +57325,7 @@
         <v>1211</v>
       </c>
       <c r="C1521" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1522" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57334,10 +57334,10 @@
         <v>19</v>
       </c>
       <c r="B1522" s="16" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C1522" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1523" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57346,10 +57346,10 @@
         <v>20</v>
       </c>
       <c r="B1523" s="16" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C1523" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1524" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57361,7 +57361,7 @@
         <v>1407</v>
       </c>
       <c r="C1524" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1525" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57370,10 +57370,10 @@
         <v>22</v>
       </c>
       <c r="B1525" s="16" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C1525" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57382,10 +57382,10 @@
         <v>23</v>
       </c>
       <c r="B1526" s="16" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C1526" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1527" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57394,10 +57394,10 @@
         <v>24</v>
       </c>
       <c r="B1527" s="16" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C1527" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1528" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57409,7 +57409,7 @@
         <v>1381</v>
       </c>
       <c r="C1528" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1529" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57418,10 +57418,10 @@
         <v>26</v>
       </c>
       <c r="B1529" s="16" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C1529" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1530" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57433,7 +57433,7 @@
         <v>1151</v>
       </c>
       <c r="C1530" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1531" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57445,7 +57445,7 @@
         <v>1387</v>
       </c>
       <c r="C1531" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1532" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57454,10 +57454,10 @@
         <v>29</v>
       </c>
       <c r="B1532" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C1532" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1533" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57466,10 +57466,10 @@
         <v>30</v>
       </c>
       <c r="B1533" s="16" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C1533" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1534" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57478,10 +57478,10 @@
         <v>31</v>
       </c>
       <c r="B1534" s="16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C1534" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1535" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57490,10 +57490,10 @@
         <v>32</v>
       </c>
       <c r="B1535" s="16" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C1535" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57505,7 +57505,7 @@
         <v>1242</v>
       </c>
       <c r="C1536" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1537" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57514,10 +57514,10 @@
         <v>34</v>
       </c>
       <c r="B1537" s="16" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C1537" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1538" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57526,10 +57526,10 @@
         <v>35</v>
       </c>
       <c r="B1538" s="16" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C1538" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1539" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57541,7 +57541,7 @@
         <v>1407</v>
       </c>
       <c r="C1539" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1540" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57553,7 +57553,7 @@
         <v>1387</v>
       </c>
       <c r="C1540" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1541" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57562,10 +57562,10 @@
         <v>38</v>
       </c>
       <c r="B1541" s="16" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C1541" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1542" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57577,7 +57577,7 @@
         <v>1151</v>
       </c>
       <c r="C1542" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1543" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57586,10 +57586,10 @@
         <v>40</v>
       </c>
       <c r="B1543" s="16" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C1543" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1544" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57601,7 +57601,7 @@
         <v>1281</v>
       </c>
       <c r="C1544" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1545" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57613,7 +57613,7 @@
         <v>1555</v>
       </c>
       <c r="C1545" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1546" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57625,7 +57625,7 @@
         <v>1704</v>
       </c>
       <c r="C1546" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1547" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57637,7 +57637,7 @@
         <v>1169</v>
       </c>
       <c r="C1547" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1548" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57646,10 +57646,10 @@
         <v>45</v>
       </c>
       <c r="B1548" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C1548" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1549" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57661,7 +57661,7 @@
         <v>1346</v>
       </c>
       <c r="C1549" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1550" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57670,10 +57670,10 @@
         <v>47</v>
       </c>
       <c r="B1550" s="16" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C1550" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1551" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57682,10 +57682,10 @@
         <v>48</v>
       </c>
       <c r="B1551" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C1551" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1552" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
@@ -57694,10 +57694,10 @@
         <v>49</v>
       </c>
       <c r="B1552" s="16" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C1552" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1553" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57706,10 +57706,10 @@
         <v>50</v>
       </c>
       <c r="B1553" s="16" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C1553" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1554" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57718,10 +57718,10 @@
         <v>51</v>
       </c>
       <c r="B1554" s="16" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C1554" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1555" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57730,10 +57730,10 @@
         <v>52</v>
       </c>
       <c r="B1555" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C1555" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1556" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57742,10 +57742,10 @@
         <v>53</v>
       </c>
       <c r="B1556" s="16" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C1556" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1557" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57754,10 +57754,10 @@
         <v>54</v>
       </c>
       <c r="B1557" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C1557" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1558" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57769,7 +57769,7 @@
         <v>1188</v>
       </c>
       <c r="C1558" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1559" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57781,7 +57781,7 @@
         <v>1327</v>
       </c>
       <c r="C1559" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1560" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57790,10 +57790,10 @@
         <v>57</v>
       </c>
       <c r="B1560" s="16" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C1560" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1561" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57805,7 +57805,7 @@
         <v>1419</v>
       </c>
       <c r="C1561" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1562" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57814,10 +57814,10 @@
         <v>59</v>
       </c>
       <c r="B1562" s="16" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C1562" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1563" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57826,10 +57826,10 @@
         <v>60</v>
       </c>
       <c r="B1563" s="16" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C1563" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1564" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57838,10 +57838,10 @@
         <v>61</v>
       </c>
       <c r="B1564" s="16" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C1564" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1565" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57853,7 +57853,7 @@
         <v>1419</v>
       </c>
       <c r="C1565" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1566" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57862,10 +57862,10 @@
         <v>63</v>
       </c>
       <c r="B1566" s="16" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C1566" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1567" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -57874,13 +57874,13 @@
         <v>64</v>
       </c>
       <c r="B1567" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C1567" s="16" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D1567" s="21" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.3">
